--- a/Test-Data/data.xlsx
+++ b/Test-Data/data.xlsx
@@ -3,19 +3,15 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19001"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4455" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13140" windowHeight="3480" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1:L9"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
   <si>
     <t>UserName</t>
   </si>
@@ -70,6 +66,12 @@
   </si>
   <si>
     <t>chrome</t>
+  </si>
+  <si>
+    <t>Peethamber</t>
+  </si>
+  <si>
+    <t>FEB</t>
   </si>
 </sst>
 </file>
@@ -466,10 +468,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{244EDF6E-C6EA-4817-B865-4FF9F63D4C4F}">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -530,9 +532,36 @@
         <v>2013</v>
       </c>
     </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3">
+        <v>7406767770</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3">
+        <v>2013</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="E2" r:id="rId1" xr:uid="{1B87AF6D-6F64-4B15-9C6C-C29FB14A25F2}"/>
+    <hyperlink ref="E3" r:id="rId2" xr:uid="{B77E6AC6-59A7-4B5F-91AB-89F6DD1EBFAF}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
